--- a/python/Statistics/Results/Results for 00Z/RST_classification_00Z_ERA_1979-2016.xlsx
+++ b/python/Statistics/Results/Results for 00Z/RST_classification_00Z_ERA_1979-2016.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\Results for 00Z\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D5EBAC-DC1A-4972-BA4A-513597937609}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13883" uniqueCount="4">
   <si>
     <t>No RST</t>
   </si>
@@ -32,20 +37,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -61,15 +65,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,20 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:AM367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AQ367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4:AQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:39">
+    <row r="2" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -485,8 +494,17 @@
       <c r="AM2" t="s">
         <v>0</v>
       </c>
+      <c r="AO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -601,8 +619,20 @@
       <c r="AM3" t="s">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <f>COUNTIF($B$2:$AM$367, "East")</f>
+        <v>276</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIF($B$2:$AM$367, "Central")</f>
+        <v>544</v>
+      </c>
+      <c r="AQ3">
+        <f>COUNTIF($B$2:$AM$367, "West")</f>
+        <v>127</v>
+      </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -717,8 +747,20 @@
       <c r="AM4" t="s">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <f>AO3/SUM($AO$3:$AQ$3)*100</f>
+        <v>29.144667370644139</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AQ4" si="0">AP3/SUM($AO$3:$AQ$3)*100</f>
+        <v>57.444561774023228</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="0"/>
+        <v>13.410770855332629</v>
+      </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -834,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -950,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -2458,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -3966,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -4430,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -4546,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -4894,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -5126,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -5474,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -5822,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>1</v>
       </c>
@@ -6054,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -6286,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -6518,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -6750,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -6866,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -6982,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>0</v>
       </c>
@@ -7214,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -7362,7 +7404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -7594,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
@@ -7826,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>3</v>
       </c>
@@ -7942,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -8058,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +8216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -8290,7 +8332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -8522,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -8638,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>2</v>
       </c>
@@ -8754,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -8870,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>0</v>
       </c>
@@ -9218,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -9334,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -9450,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -9566,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -9682,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -9914,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -10030,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -10146,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -10494,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -10610,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -10958,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>0</v>
       </c>
@@ -11190,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -11306,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -11422,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>0</v>
       </c>
@@ -11538,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>0</v>
       </c>
@@ -11654,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>0</v>
       </c>
@@ -11770,7 +11812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -11886,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -12002,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>0</v>
       </c>
@@ -12234,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>0</v>
       </c>
@@ -12350,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>0</v>
       </c>
@@ -12466,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>0</v>
       </c>
@@ -12582,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>0</v>
       </c>
@@ -12698,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>0</v>
       </c>
@@ -12814,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>0</v>
       </c>
@@ -12930,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>0</v>
       </c>
@@ -13162,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>0</v>
       </c>
@@ -13278,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>0</v>
       </c>
@@ -13394,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>0</v>
       </c>
@@ -13510,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>0</v>
       </c>
@@ -13626,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -13742,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>0</v>
       </c>
@@ -13858,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>1</v>
       </c>
@@ -13974,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>3</v>
       </c>
@@ -14090,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>1</v>
       </c>
@@ -14206,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>0</v>
       </c>
@@ -14322,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>0</v>
       </c>
@@ -14438,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>0</v>
       </c>
@@ -14554,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>0</v>
       </c>
@@ -14670,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>0</v>
       </c>
@@ -14786,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>0</v>
       </c>
@@ -15018,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>0</v>
       </c>
@@ -15134,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>0</v>
       </c>
@@ -15250,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>0</v>
       </c>
@@ -15366,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>0</v>
       </c>
@@ -15482,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>0</v>
       </c>
@@ -15598,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>0</v>
       </c>
@@ -15714,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>0</v>
       </c>
@@ -15830,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>0</v>
       </c>
@@ -15946,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>0</v>
       </c>
@@ -16062,7 +16104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>0</v>
       </c>
@@ -16178,7 +16220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>0</v>
       </c>
@@ -16294,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>0</v>
       </c>
@@ -16410,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>0</v>
       </c>
@@ -16526,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>0</v>
       </c>
@@ -16642,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>0</v>
       </c>
@@ -16758,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>0</v>
       </c>
@@ -16874,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>0</v>
       </c>
@@ -16990,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>0</v>
       </c>
@@ -17106,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>0</v>
       </c>
@@ -17222,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>0</v>
       </c>
@@ -17338,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>0</v>
       </c>
@@ -17454,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>0</v>
       </c>
@@ -17570,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>0</v>
       </c>
@@ -17686,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>0</v>
       </c>
@@ -17802,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>0</v>
       </c>
@@ -17918,7 +17960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>0</v>
       </c>
@@ -18034,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>0</v>
       </c>
@@ -18150,7 +18192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>0</v>
       </c>
@@ -18266,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>0</v>
       </c>
@@ -18382,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>0</v>
       </c>
@@ -18498,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>0</v>
       </c>
@@ -18614,7 +18656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>0</v>
       </c>
@@ -18730,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>0</v>
       </c>
@@ -18846,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -18962,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>0</v>
       </c>
@@ -19078,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>0</v>
       </c>
@@ -19194,7 +19236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>0</v>
       </c>
@@ -19310,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>0</v>
       </c>
@@ -19426,7 +19468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>0</v>
       </c>
@@ -19542,7 +19584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>0</v>
       </c>
@@ -19658,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>0</v>
       </c>
@@ -19774,7 +19816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>0</v>
       </c>
@@ -19890,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>0</v>
       </c>
@@ -20006,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>0</v>
       </c>
@@ -20122,7 +20164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>0</v>
       </c>
@@ -20238,7 +20280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>0</v>
       </c>
@@ -20354,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>0</v>
       </c>
@@ -20470,7 +20512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>0</v>
       </c>
@@ -20586,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>0</v>
       </c>
@@ -20702,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>0</v>
       </c>
@@ -20818,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>0</v>
       </c>
@@ -20934,7 +20976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>0</v>
       </c>
@@ -21050,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>0</v>
       </c>
@@ -21166,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>0</v>
       </c>
@@ -21282,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>0</v>
       </c>
@@ -21398,7 +21440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>0</v>
       </c>
@@ -21514,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>0</v>
       </c>
@@ -21630,7 +21672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>0</v>
       </c>
@@ -21746,7 +21788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>0</v>
       </c>
@@ -21862,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>0</v>
       </c>
@@ -21978,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>0</v>
       </c>
@@ -22094,7 +22136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>0</v>
       </c>
@@ -22210,7 +22252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>0</v>
       </c>
@@ -22326,7 +22368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>0</v>
       </c>
@@ -22442,7 +22484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>0</v>
       </c>
@@ -22558,7 +22600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39">
+    <row r="194" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>0</v>
       </c>
@@ -22674,7 +22716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39">
+    <row r="195" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>0</v>
       </c>
@@ -22790,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39">
+    <row r="196" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>0</v>
       </c>
@@ -22906,7 +22948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39">
+    <row r="197" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>0</v>
       </c>
@@ -23022,7 +23064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39">
+    <row r="198" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>0</v>
       </c>
@@ -23138,7 +23180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39">
+    <row r="199" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>0</v>
       </c>
@@ -23254,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39">
+    <row r="200" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>0</v>
       </c>
@@ -23370,7 +23412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39">
+    <row r="201" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>0</v>
       </c>
@@ -23486,7 +23528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39">
+    <row r="202" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>0</v>
       </c>
@@ -23602,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39">
+    <row r="203" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>0</v>
       </c>
@@ -23718,7 +23760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39">
+    <row r="204" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>0</v>
       </c>
@@ -23834,7 +23876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39">
+    <row r="205" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>0</v>
       </c>
@@ -23950,7 +23992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39">
+    <row r="206" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>0</v>
       </c>
@@ -24066,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39">
+    <row r="207" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>0</v>
       </c>
@@ -24182,7 +24224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39">
+    <row r="208" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>0</v>
       </c>
@@ -24298,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:39">
+    <row r="209" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>0</v>
       </c>
@@ -24414,7 +24456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:39">
+    <row r="210" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>0</v>
       </c>
@@ -24530,7 +24572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:39">
+    <row r="211" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>0</v>
       </c>
@@ -24646,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:39">
+    <row r="212" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>0</v>
       </c>
@@ -24762,7 +24804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:39">
+    <row r="213" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>0</v>
       </c>
@@ -24878,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39">
+    <row r="214" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>0</v>
       </c>
@@ -24994,7 +25036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:39">
+    <row r="215" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>0</v>
       </c>
@@ -25110,7 +25152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:39">
+    <row r="216" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>0</v>
       </c>
@@ -25226,7 +25268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:39">
+    <row r="217" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>0</v>
       </c>
@@ -25342,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:39">
+    <row r="218" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>0</v>
       </c>
@@ -25458,7 +25500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:39">
+    <row r="219" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>0</v>
       </c>
@@ -25574,7 +25616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:39">
+    <row r="220" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>0</v>
       </c>
@@ -25690,7 +25732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:39">
+    <row r="221" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>0</v>
       </c>
@@ -25806,7 +25848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:39">
+    <row r="222" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>0</v>
       </c>
@@ -25922,7 +25964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:39">
+    <row r="223" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>0</v>
       </c>
@@ -26038,7 +26080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:39">
+    <row r="224" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>0</v>
       </c>
@@ -26154,7 +26196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39">
+    <row r="225" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>0</v>
       </c>
@@ -26270,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39">
+    <row r="226" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>0</v>
       </c>
@@ -26386,7 +26428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39">
+    <row r="227" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>0</v>
       </c>
@@ -26502,7 +26544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39">
+    <row r="228" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>0</v>
       </c>
@@ -26618,7 +26660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39">
+    <row r="229" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>0</v>
       </c>
@@ -26734,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39">
+    <row r="230" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>0</v>
       </c>
@@ -26850,7 +26892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:39">
+    <row r="231" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>0</v>
       </c>
@@ -26966,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:39">
+    <row r="232" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>0</v>
       </c>
@@ -27082,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:39">
+    <row r="233" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>0</v>
       </c>
@@ -27198,7 +27240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:39">
+    <row r="234" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>0</v>
       </c>
@@ -27314,7 +27356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:39">
+    <row r="235" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>0</v>
       </c>
@@ -27430,7 +27472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:39">
+    <row r="236" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>0</v>
       </c>
@@ -27546,7 +27588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:39">
+    <row r="237" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>0</v>
       </c>
@@ -27662,7 +27704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:39">
+    <row r="238" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>0</v>
       </c>
@@ -27778,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:39">
+    <row r="239" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>0</v>
       </c>
@@ -27894,7 +27936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:39">
+    <row r="240" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>0</v>
       </c>
@@ -28010,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39">
+    <row r="241" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>0</v>
       </c>
@@ -28126,7 +28168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39">
+    <row r="242" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>0</v>
       </c>
@@ -28242,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39">
+    <row r="243" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>0</v>
       </c>
@@ -28358,7 +28400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39">
+    <row r="244" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>0</v>
       </c>
@@ -28474,7 +28516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39">
+    <row r="245" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>0</v>
       </c>
@@ -28590,7 +28632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39">
+    <row r="246" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>0</v>
       </c>
@@ -28706,7 +28748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39">
+    <row r="247" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>0</v>
       </c>
@@ -28822,7 +28864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39">
+    <row r="248" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>0</v>
       </c>
@@ -28938,7 +28980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39">
+    <row r="249" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>0</v>
       </c>
@@ -29054,7 +29096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39">
+    <row r="250" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>0</v>
       </c>
@@ -29170,7 +29212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39">
+    <row r="251" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>0</v>
       </c>
@@ -29286,7 +29328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39">
+    <row r="252" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>0</v>
       </c>
@@ -29402,7 +29444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39">
+    <row r="253" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>0</v>
       </c>
@@ -29518,7 +29560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39">
+    <row r="254" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>0</v>
       </c>
@@ -29634,7 +29676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39">
+    <row r="255" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>0</v>
       </c>
@@ -29750,7 +29792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39">
+    <row r="256" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>0</v>
       </c>
@@ -29866,7 +29908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:39">
+    <row r="257" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>0</v>
       </c>
@@ -29982,7 +30024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:39">
+    <row r="258" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>0</v>
       </c>
@@ -30098,7 +30140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:39">
+    <row r="259" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>0</v>
       </c>
@@ -30214,7 +30256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:39">
+    <row r="260" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>0</v>
       </c>
@@ -30330,7 +30372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:39">
+    <row r="261" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>0</v>
       </c>
@@ -30446,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:39">
+    <row r="262" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>0</v>
       </c>
@@ -30562,7 +30604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:39">
+    <row r="263" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>0</v>
       </c>
@@ -30678,7 +30720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:39">
+    <row r="264" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>0</v>
       </c>
@@ -30794,7 +30836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:39">
+    <row r="265" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>0</v>
       </c>
@@ -30910,7 +30952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:39">
+    <row r="266" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>0</v>
       </c>
@@ -31026,7 +31068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:39">
+    <row r="267" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>0</v>
       </c>
@@ -31142,7 +31184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:39">
+    <row r="268" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>0</v>
       </c>
@@ -31258,7 +31300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:39">
+    <row r="269" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>0</v>
       </c>
@@ -31374,7 +31416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:39">
+    <row r="270" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>0</v>
       </c>
@@ -31490,7 +31532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:39">
+    <row r="271" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>0</v>
       </c>
@@ -31606,7 +31648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:39">
+    <row r="272" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>0</v>
       </c>
@@ -31722,7 +31764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:39">
+    <row r="273" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>0</v>
       </c>
@@ -31838,7 +31880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:39">
+    <row r="274" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>0</v>
       </c>
@@ -31954,7 +31996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:39">
+    <row r="275" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>0</v>
       </c>
@@ -32070,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>0</v>
       </c>
@@ -32186,7 +32228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:39">
+    <row r="277" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>0</v>
       </c>
@@ -32302,7 +32344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>0</v>
       </c>
@@ -32418,7 +32460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>0</v>
       </c>
@@ -32534,7 +32576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>0</v>
       </c>
@@ -32650,7 +32692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:39">
+    <row r="281" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>0</v>
       </c>
@@ -32766,7 +32808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:39">
+    <row r="282" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>0</v>
       </c>
@@ -32882,7 +32924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>0</v>
       </c>
@@ -32998,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>0</v>
       </c>
@@ -33114,7 +33156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:39">
+    <row r="285" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>0</v>
       </c>
@@ -33230,7 +33272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:39">
+    <row r="286" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>0</v>
       </c>
@@ -33346,7 +33388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:39">
+    <row r="287" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>0</v>
       </c>
@@ -33462,7 +33504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:39">
+    <row r="288" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>0</v>
       </c>
@@ -33578,7 +33620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:39">
+    <row r="289" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>0</v>
       </c>
@@ -33694,7 +33736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:39">
+    <row r="290" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>0</v>
       </c>
@@ -33810,7 +33852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:39">
+    <row r="291" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>0</v>
       </c>
@@ -33926,7 +33968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:39">
+    <row r="292" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>0</v>
       </c>
@@ -34042,7 +34084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:39">
+    <row r="293" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>0</v>
       </c>
@@ -34158,7 +34200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:39">
+    <row r="294" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>0</v>
       </c>
@@ -34274,7 +34316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:39">
+    <row r="295" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>0</v>
       </c>
@@ -34390,7 +34432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:39">
+    <row r="296" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>0</v>
       </c>
@@ -34506,7 +34548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:39">
+    <row r="297" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>0</v>
       </c>
@@ -34622,7 +34664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:39">
+    <row r="298" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>0</v>
       </c>
@@ -34738,7 +34780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:39">
+    <row r="299" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>0</v>
       </c>
@@ -34854,7 +34896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:39">
+    <row r="300" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>0</v>
       </c>
@@ -34970,7 +35012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:39">
+    <row r="301" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>0</v>
       </c>
@@ -35086,7 +35128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:39">
+    <row r="302" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>0</v>
       </c>
@@ -35202,7 +35244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:39">
+    <row r="303" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>0</v>
       </c>
@@ -35318,7 +35360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:39">
+    <row r="304" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>0</v>
       </c>
@@ -35434,7 +35476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:39">
+    <row r="305" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>0</v>
       </c>
@@ -35550,7 +35592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:39">
+    <row r="306" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>0</v>
       </c>
@@ -35666,7 +35708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:39">
+    <row r="307" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>0</v>
       </c>
@@ -35782,7 +35824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:39">
+    <row r="308" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>0</v>
       </c>
@@ -35898,7 +35940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:39">
+    <row r="309" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>0</v>
       </c>
@@ -36014,7 +36056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:39">
+    <row r="310" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>0</v>
       </c>
@@ -36130,7 +36172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:39">
+    <row r="311" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>0</v>
       </c>
@@ -36246,7 +36288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:39">
+    <row r="312" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>0</v>
       </c>
@@ -36362,7 +36404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:39">
+    <row r="313" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>0</v>
       </c>
@@ -36478,7 +36520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:39">
+    <row r="314" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>0</v>
       </c>
@@ -36594,7 +36636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:39">
+    <row r="315" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>0</v>
       </c>
@@ -36710,7 +36752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:39">
+    <row r="316" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>1</v>
       </c>
@@ -36826,7 +36868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:39">
+    <row r="317" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>2</v>
       </c>
@@ -36942,7 +36984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:39">
+    <row r="318" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>2</v>
       </c>
@@ -37058,7 +37100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:39">
+    <row r="319" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>2</v>
       </c>
@@ -37174,7 +37216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:39">
+    <row r="320" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>0</v>
       </c>
@@ -37290,7 +37332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:39">
+    <row r="321" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>0</v>
       </c>
@@ -37406,7 +37448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39">
+    <row r="322" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>0</v>
       </c>
@@ -37522,7 +37564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39">
+    <row r="323" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>1</v>
       </c>
@@ -37638,7 +37680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:39">
+    <row r="324" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>1</v>
       </c>
@@ -37754,7 +37796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:39">
+    <row r="325" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>0</v>
       </c>
@@ -37870,7 +37912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:39">
+    <row r="326" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>0</v>
       </c>
@@ -37986,7 +38028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:39">
+    <row r="327" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>0</v>
       </c>
@@ -38102,7 +38144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:39">
+    <row r="328" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>1</v>
       </c>
@@ -38218,7 +38260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:39">
+    <row r="329" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>0</v>
       </c>
@@ -38334,7 +38376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:39">
+    <row r="330" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>2</v>
       </c>
@@ -38450,7 +38492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:39">
+    <row r="331" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>1</v>
       </c>
@@ -38566,7 +38608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39">
+    <row r="332" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>0</v>
       </c>
@@ -38682,7 +38724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:39">
+    <row r="333" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>0</v>
       </c>
@@ -38798,7 +38840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39">
+    <row r="334" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>0</v>
       </c>
@@ -38914,7 +38956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:39">
+    <row r="335" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>0</v>
       </c>
@@ -39030,7 +39072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39">
+    <row r="336" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>0</v>
       </c>
@@ -39146,7 +39188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:39">
+    <row r="337" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>0</v>
       </c>
@@ -39262,7 +39304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:39">
+    <row r="338" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>0</v>
       </c>
@@ -39378,7 +39420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:39">
+    <row r="339" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>0</v>
       </c>
@@ -39494,7 +39536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:39">
+    <row r="340" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>0</v>
       </c>
@@ -39610,7 +39652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:39">
+    <row r="341" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>0</v>
       </c>
@@ -39726,7 +39768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:39">
+    <row r="342" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>0</v>
       </c>
@@ -39842,7 +39884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:39">
+    <row r="343" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>0</v>
       </c>
@@ -39958,7 +40000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:39">
+    <row r="344" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>0</v>
       </c>
@@ -40074,7 +40116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:39">
+    <row r="345" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>0</v>
       </c>
@@ -40190,7 +40232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:39">
+    <row r="346" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>0</v>
       </c>
@@ -40306,7 +40348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:39">
+    <row r="347" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>0</v>
       </c>
@@ -40422,7 +40464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:39">
+    <row r="348" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>0</v>
       </c>
@@ -40538,7 +40580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:39">
+    <row r="349" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>0</v>
       </c>
@@ -40654,7 +40696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:39">
+    <row r="350" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>0</v>
       </c>
@@ -40770,7 +40812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:39">
+    <row r="351" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>0</v>
       </c>
@@ -40886,7 +40928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:39">
+    <row r="352" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>0</v>
       </c>
@@ -41002,7 +41044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:39">
+    <row r="353" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>0</v>
       </c>
@@ -41118,7 +41160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:39">
+    <row r="354" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>1</v>
       </c>
@@ -41234,7 +41276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:39">
+    <row r="355" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>0</v>
       </c>
@@ -41350,7 +41392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:39">
+    <row r="356" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>0</v>
       </c>
@@ -41466,7 +41508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:39">
+    <row r="357" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>0</v>
       </c>
@@ -41582,7 +41624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:39">
+    <row r="358" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>0</v>
       </c>
@@ -41698,7 +41740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:39">
+    <row r="359" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>0</v>
       </c>
@@ -41814,7 +41856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:39">
+    <row r="360" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>3</v>
       </c>
@@ -41930,7 +41972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:39">
+    <row r="361" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>0</v>
       </c>
@@ -42046,7 +42088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:39">
+    <row r="362" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>0</v>
       </c>
@@ -42162,7 +42204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:39">
+    <row r="363" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>0</v>
       </c>
@@ -42278,7 +42320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:39">
+    <row r="364" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>0</v>
       </c>
@@ -42394,7 +42436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:39">
+    <row r="365" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>0</v>
       </c>
@@ -42510,7 +42552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:39">
+    <row r="366" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>0</v>
       </c>
@@ -42626,7 +42668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:39">
+    <row r="367" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>0</v>
       </c>
@@ -42743,6 +42785,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>